--- a/data/trans_bre/P16A07-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Clase-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A07-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.067365702896728</v>
+        <v>1.00929280980721</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.006187491428472</v>
+        <v>-2.017379788862116</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.709609792681088</v>
+        <v>0.6561872201957502</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.5557649654511307</v>
+        <v>-0.219296067508844</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4539704433786479</v>
+        <v>0.2782607863644351</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6615068899130143</v>
+        <v>-0.645953068728979</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2175913413794313</v>
+        <v>-0.003872873438542312</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2310195808755264</v>
+        <v>-0.1408934459196327</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.199175477501933</v>
+        <v>5.695734807490075</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.952697141567636</v>
+        <v>3.104792483760797</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.873920838109659</v>
+        <v>5.742678123302776</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.73101898404454</v>
+        <v>4.157310830996869</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>19.88381058886816</v>
+        <v>20.46845412861225</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.86165692186416</v>
+        <v>2.634558782779208</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11.2991351143441</v>
+        <v>10.74753310264825</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.04608202054352</v>
+        <v>2.665375942504208</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.666263945977054</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.012257868349694</v>
+        <v>3.012257868349695</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>2.876905379053295</v>
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.098625301785372</v>
+        <v>2.084722960275553</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.804028583582908</v>
+        <v>-1.893669949360016</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.416720508620584</v>
+        <v>-0.2011678825901186</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6610222882371705</v>
+        <v>0.757577413942677</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5651680025435549</v>
+        <v>0.5226469091607852</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4780102017314062</v>
+        <v>-0.459528872879746</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3774466452466942</v>
+        <v>-0.2992684683949628</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1103293831973912</v>
+        <v>0.1678937271497367</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.84121636543257</v>
+        <v>7.763785186109865</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.083928589015209</v>
+        <v>4.038964503667551</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.091326369938943</v>
+        <v>4.205780122529372</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.362193435758313</v>
+        <v>5.552214739030489</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>10.26508480700128</v>
+        <v>9.610436244135343</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.355094027056586</v>
+        <v>2.23240961761091</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>6.257664416002706</v>
+        <v>6.957206818335352</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.944104438528223</v>
+        <v>3.172281941485028</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.172087663526111</v>
+        <v>1.302208514413668</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.161451756897663</v>
+        <v>2.06597697992141</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.85292658679802</v>
+        <v>3.226129673899599</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6966446090443567</v>
+        <v>0.9358677476503161</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2512380602349345</v>
+        <v>0.232918814997267</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3725835154150889</v>
+        <v>0.3322810381199107</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6267884196599046</v>
+        <v>0.7698664696747464</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.08409880254237279</v>
+        <v>0.121342401487802</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.962329794575455</v>
+        <v>10.58586299705097</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.02867691110034</v>
+        <v>10.04915617556233</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.43398945203179</v>
+        <v>14.29258960181966</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.052900324208874</v>
+        <v>8.378311773001517</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>5.216061718470311</v>
+        <v>6.072990735163913</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.22600309102446</v>
+        <v>3.238031664025375</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>6.262980675195092</v>
+        <v>7.750950880652964</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.340151687931707</v>
+        <v>2.486869806016243</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.742680037259018</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.254769170471064</v>
+        <v>4.254769170471063</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>2.087541913515829</v>
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.197848214616648</v>
+        <v>2.565900341861936</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.645300543856821</v>
+        <v>1.719754152799254</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9588229469689011</v>
+        <v>0.9916056865656935</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.315745152852534</v>
+        <v>2.503691462649185</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8364735911622491</v>
+        <v>0.936418971523856</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3446054746915402</v>
+        <v>0.3734891855737805</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2863271529940665</v>
+        <v>0.2661478557376747</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5008505161688159</v>
+        <v>0.536670755623044</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.115785111125395</v>
+        <v>6.545243679174378</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.411876490955885</v>
+        <v>6.326417550841268</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.645276915713247</v>
+        <v>4.507540314886015</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.00430663852794</v>
+        <v>6.247687781519687</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.883761825259088</v>
+        <v>4.330530707496937</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.272330632426141</v>
+        <v>2.14273572054195</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.3673920120502</v>
+        <v>2.282763561498046</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.979625131898003</v>
+        <v>2.066352269215932</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.395773584117916</v>
+        <v>1.373528350748331</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.117171709492988</v>
+        <v>7.079759610096023</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.625110060505408</v>
+        <v>5.82036311744057</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.201180618975006</v>
+        <v>3.994037657476738</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2080981254321973</v>
+        <v>0.2017471050604529</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.865659918210483</v>
+        <v>1.891207979084483</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.443797119621095</v>
+        <v>1.454914451153471</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.7889876139054944</v>
+        <v>0.7368082852682669</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.698269805664316</v>
+        <v>7.431388764831165</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.60796577291433</v>
+        <v>12.65915265792339</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.41765029569789</v>
+        <v>11.25551992316795</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.652482094155596</v>
+        <v>8.531533209003456</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.76894761027695</v>
+        <v>3.373554581075029</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8.286906358565066</v>
+        <v>8.148028167941886</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6.183477279953577</v>
+        <v>6.458504469410445</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3.440016012063805</v>
+        <v>3.391897391352471</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>6.572034410625975</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4.91739921132672</v>
+        <v>4.917399211326718</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.024210265743462</v>
@@ -1149,7 +1149,7 @@
         <v>5.964237025171749</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.822450615416461</v>
+        <v>1.82245061541646</v>
       </c>
     </row>
     <row r="20">
@@ -1160,26 +1160,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4183635878293275</v>
+        <v>0.1380776113548613</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.504350770931</v>
+        <v>6.351213820211248</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.39092124953947</v>
+        <v>4.112116225083886</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.66384611714939</v>
+        <v>1.225662265170373</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07106174335289311</v>
+        <v>-0.01037105548618246</v>
       </c>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>1.503815471112766</v>
+        <v>1.104122889996646</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1943251451926418</v>
+        <v>0.04631228979088385</v>
       </c>
     </row>
     <row r="21">
@@ -1190,26 +1190,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.620149720168103</v>
+        <v>5.295258143273754</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>10.26338051864672</v>
+        <v>10.22400039674979</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8.5752376603825</v>
+        <v>8.585218911309168</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.447536761651675</v>
+        <v>7.352160906879571</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.836157296371009</v>
+        <v>3.14902592504695</v>
       </c>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>23.90601930642781</v>
+        <v>25.73792104903223</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>7.463593994858946</v>
+        <v>7.264727027447223</v>
       </c>
     </row>
     <row r="22">
@@ -1256,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.331676956363695</v>
+        <v>3.339181776878539</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.09957797939102</v>
+        <v>4.102676087685183</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.898882689525077</v>
+        <v>3.885032164843651</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.210701259086681</v>
+        <v>3.185557684325317</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1.318211024333647</v>
+        <v>1.287463167192108</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1.140890493006814</v>
+        <v>1.157124612140021</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1.464879969051368</v>
+        <v>1.468819470506008</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.8090788773347085</v>
+        <v>0.7710533449393046</v>
       </c>
     </row>
     <row r="24">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.298087048929716</v>
+        <v>5.349814631825814</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.461220791451833</v>
+        <v>6.566177442030936</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.98697837733552</v>
+        <v>5.982757696699124</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.146101376441696</v>
+        <v>5.142191125792086</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.966018733911019</v>
+        <v>2.901215559490364</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.479796746136273</v>
+        <v>2.520323749302573</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>3.211699937615273</v>
+        <v>3.215332501895332</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.687080864338202</v>
+        <v>1.689695634419645</v>
       </c>
     </row>
     <row r="25">
